--- a/multi_stocks_multi_predictions_learning_parameters.xlsx
+++ b/multi_stocks_multi_predictions_learning_parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dickli/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CA2ACC7-CEF1-7043-B925-9C633CDDC4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7E316-5FA0-B14A-B52B-934ABB20310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="10380" windowWidth="27640" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="1880" windowWidth="27640" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multi_stocks_multi_predictions_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -79,9 +92,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -560,9 +573,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,60 +941,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="2" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="12.6640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -978,43 +1004,43 @@
       <c r="A2" s="1">
         <v>44799</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>365</v>
       </c>
-      <c r="E2">
-        <v>128</v>
-      </c>
-      <c r="F2">
-        <v>400</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4">
         <v>150</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>100</v>
       </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="K2">
-        <v>0.1</v>
-      </c>
-      <c r="L2">
+      <c r="J2" s="4">
+        <v>50</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="2">
         <v>0.8</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1022,43 +1048,43 @@
       <c r="A3" s="1">
         <v>44799</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>365</v>
       </c>
-      <c r="E3">
-        <v>512</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="I3">
+      <c r="E3" s="2">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2">
+        <v>400</v>
+      </c>
+      <c r="G3" s="2">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
+        <v>150</v>
+      </c>
+      <c r="I3" s="2">
         <v>100</v>
       </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
-        <v>0.2</v>
-      </c>
-      <c r="L3">
+      <c r="J3" s="2">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="2">
         <v>0.8</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1066,43 +1092,43 @@
       <c r="A4" s="1">
         <v>44799</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>730</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>250</v>
-      </c>
-      <c r="I4">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>365</v>
+      </c>
+      <c r="E4" s="4">
+        <v>128</v>
+      </c>
+      <c r="F4" s="4">
+        <v>600</v>
+      </c>
+      <c r="G4" s="4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="4">
+        <v>150</v>
+      </c>
+      <c r="I4" s="4">
         <v>100</v>
       </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4">
-        <v>0.2</v>
-      </c>
-      <c r="L4">
+      <c r="J4" s="4">
+        <v>50</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="2">
         <v>0.8</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1110,43 +1136,43 @@
       <c r="A5" s="1">
         <v>44799</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>365</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>512</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1000</v>
       </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="2">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
         <v>200</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>100</v>
       </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>0.8</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1154,43 +1180,43 @@
       <c r="A6" s="1">
         <v>44799</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>730</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>1000</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>250</v>
-      </c>
-      <c r="I6">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>365</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>600</v>
+      </c>
+      <c r="G6" s="4">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4">
+        <v>150</v>
+      </c>
+      <c r="I6" s="4">
         <v>100</v>
       </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="4">
+        <v>50</v>
+      </c>
+      <c r="K6" s="4">
         <v>0.2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>0.8</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1198,47 +1224,362 @@
       <c r="A7" s="1">
         <v>44799</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>365</v>
+      </c>
+      <c r="E7" s="4">
+        <v>128</v>
+      </c>
+      <c r="F7" s="4">
+        <v>600</v>
+      </c>
+      <c r="G7" s="4">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
+        <v>150</v>
+      </c>
+      <c r="I7" s="4">
+        <v>100</v>
+      </c>
+      <c r="J7" s="4">
+        <v>50</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>730</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2">
+        <v>250</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>365</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>600</v>
+      </c>
+      <c r="G9" s="2">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <v>150</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>365</v>
+      </c>
+      <c r="E10" s="2">
+        <v>512</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <v>200</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>365</v>
       </c>
-      <c r="E7">
+      <c r="E11" s="2">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="F11" s="2">
         <v>600</v>
       </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
         <v>150</v>
       </c>
-      <c r="I7">
+      <c r="I11" s="2">
         <v>100</v>
       </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7">
+      <c r="J11" s="2">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2">
         <v>0.2</v>
       </c>
-      <c r="L7">
+      <c r="L11" s="2">
         <v>0.8</v>
       </c>
-      <c r="M7">
+      <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>365</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
+        <v>600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3">
+        <v>150</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>50</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>730</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="3">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3">
+        <v>250</v>
+      </c>
+      <c r="I13" s="3">
+        <v>100</v>
+      </c>
+      <c r="J13" s="3">
+        <v>50</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>730</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2">
+        <v>250</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N16">
+    <sortCondition ref="B2:B16"/>
+    <sortCondition ref="D2:D16"/>
+    <sortCondition ref="E2:E16"/>
+    <sortCondition ref="F2:F16"/>
+    <sortCondition ref="G2:G16"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/multi_stocks_multi_predictions_learning_parameters.xlsx
+++ b/multi_stocks_multi_predictions_learning_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dickli/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7E316-5FA0-B14A-B52B-934ABB20310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22091DA-985A-CF41-9E67-588879F8C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1880" windowWidth="27640" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="3140" windowWidth="27640" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multi_stocks_multi_predictions_" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -942,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,37 +1002,37 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>365</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>800</v>
-      </c>
-      <c r="G2" s="4">
-        <v>50</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="E2">
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <v>600</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
         <v>150</v>
       </c>
-      <c r="I2" s="4">
-        <v>100</v>
-      </c>
-      <c r="J2" s="4">
-        <v>50</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.2</v>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>0.1</v>
       </c>
       <c r="L2" s="2">
         <v>0.8</v>
@@ -1046,37 +1046,37 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>365</v>
       </c>
-      <c r="E3" s="2">
-        <v>128</v>
-      </c>
-      <c r="F3" s="2">
-        <v>400</v>
-      </c>
-      <c r="G3" s="2">
-        <v>50</v>
-      </c>
-      <c r="H3" s="2">
-        <v>150</v>
-      </c>
-      <c r="I3" s="2">
-        <v>100</v>
-      </c>
-      <c r="J3" s="2">
-        <v>50</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.1</v>
+      <c r="E3">
+        <v>512</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>0.2</v>
       </c>
       <c r="L3" s="2">
         <v>0.8</v>
@@ -1090,37 +1090,37 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>365</v>
-      </c>
-      <c r="E4" s="4">
-        <v>128</v>
-      </c>
-      <c r="F4" s="4">
-        <v>600</v>
-      </c>
-      <c r="G4" s="4">
-        <v>50</v>
-      </c>
-      <c r="H4" s="4">
-        <v>150</v>
-      </c>
-      <c r="I4" s="4">
-        <v>100</v>
-      </c>
-      <c r="J4" s="4">
-        <v>50</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.1</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>730</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>250</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
       </c>
       <c r="L4" s="2">
         <v>0.8</v>
@@ -1134,36 +1134,36 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>365</v>
-      </c>
-      <c r="E5" s="2">
-        <v>512</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>730</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>1000</v>
       </c>
-      <c r="G5" s="2">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2">
-        <v>200</v>
-      </c>
-      <c r="I5" s="2">
-        <v>100</v>
-      </c>
-      <c r="J5" s="2">
-        <v>50</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>250</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
         <v>0.2</v>
       </c>
       <c r="L5" s="2">
@@ -1178,37 +1178,37 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>365</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
         <v>600</v>
       </c>
-      <c r="G6" s="4">
-        <v>50</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
         <v>150</v>
       </c>
-      <c r="I6" s="4">
-        <v>100</v>
-      </c>
-      <c r="J6" s="4">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.2</v>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>0.1</v>
       </c>
       <c r="L6" s="2">
         <v>0.8</v>
@@ -1222,37 +1222,37 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>365</v>
       </c>
-      <c r="E7" s="4">
-        <v>128</v>
-      </c>
-      <c r="F7" s="4">
-        <v>600</v>
-      </c>
-      <c r="G7" s="4">
-        <v>50</v>
-      </c>
-      <c r="H7" s="4">
-        <v>150</v>
-      </c>
-      <c r="I7" s="4">
-        <v>100</v>
-      </c>
-      <c r="J7" s="4">
-        <v>50</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.1</v>
+      <c r="E7">
+        <v>512</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
       </c>
       <c r="L7" s="2">
         <v>0.8</v>
@@ -1266,36 +1266,36 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>730</v>
       </c>
-      <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>1000</v>
       </c>
-      <c r="G8" s="2">
-        <v>40</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
         <v>250</v>
       </c>
-      <c r="I8" s="2">
-        <v>100</v>
-      </c>
-      <c r="J8" s="2">
-        <v>50</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
         <v>0.2</v>
       </c>
       <c r="L8" s="2">
@@ -1310,36 +1310,36 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>365</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2">
-        <v>600</v>
-      </c>
-      <c r="G9" s="2">
-        <v>50</v>
-      </c>
-      <c r="H9" s="2">
-        <v>150</v>
-      </c>
-      <c r="I9" s="2">
-        <v>100</v>
-      </c>
-      <c r="J9" s="2">
-        <v>50</v>
-      </c>
-      <c r="K9" s="2">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>730</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
         <v>0.2</v>
       </c>
       <c r="L9" s="2">
@@ -1354,37 +1354,37 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>365</v>
       </c>
-      <c r="E10" s="2">
-        <v>512</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>50</v>
-      </c>
-      <c r="H10" s="2">
-        <v>200</v>
-      </c>
-      <c r="I10" s="2">
-        <v>100</v>
-      </c>
-      <c r="J10" s="2">
-        <v>50</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.2</v>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>150</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
       </c>
       <c r="L10" s="2">
         <v>0.8</v>
@@ -1398,36 +1398,36 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>365</v>
       </c>
-      <c r="E11" s="2">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2">
-        <v>600</v>
-      </c>
-      <c r="G11" s="2">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2">
-        <v>150</v>
-      </c>
-      <c r="I11" s="2">
-        <v>100</v>
-      </c>
-      <c r="J11" s="2">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="E11">
+        <v>512</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
         <v>0.2</v>
       </c>
       <c r="L11" s="2">
@@ -1442,36 +1442,36 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>365</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3">
-        <v>600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>50</v>
-      </c>
-      <c r="H12" s="3">
-        <v>150</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>50</v>
-      </c>
-      <c r="K12" s="3">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>730</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12">
         <v>0.2</v>
       </c>
       <c r="L12" s="2">
@@ -1486,36 +1486,36 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>730</v>
       </c>
-      <c r="E13" s="3">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
         <v>1000</v>
       </c>
-      <c r="G13" s="3">
-        <v>50</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
         <v>250</v>
       </c>
-      <c r="I13" s="3">
-        <v>100</v>
-      </c>
-      <c r="J13" s="3">
-        <v>50</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
         <v>0.2</v>
       </c>
       <c r="L13" s="2">
@@ -1530,55 +1530,760 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>365</v>
+      </c>
+      <c r="E14">
+        <v>128</v>
+      </c>
+      <c r="F14">
+        <v>600</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>365</v>
+      </c>
+      <c r="E15">
+        <v>512</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>730</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>250</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>730</v>
+      </c>
+      <c r="E17">
         <v>7</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F17">
         <v>1000</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G17">
         <v>40</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H17">
         <v>250</v>
       </c>
-      <c r="I14" s="2">
-        <v>100</v>
-      </c>
-      <c r="J14" s="2">
-        <v>50</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+      <c r="K17">
         <v>0.2</v>
       </c>
-      <c r="L14" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="L17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>365</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>800</v>
+      </c>
+      <c r="G18" s="4">
+        <v>50</v>
+      </c>
+      <c r="H18" s="4">
+        <v>150</v>
+      </c>
+      <c r="I18" s="4">
+        <v>100</v>
+      </c>
+      <c r="J18" s="4">
+        <v>50</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>365</v>
+      </c>
+      <c r="E19" s="2">
+        <v>128</v>
+      </c>
+      <c r="F19" s="2">
+        <v>400</v>
+      </c>
+      <c r="G19" s="2">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2">
+        <v>150</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2">
+        <v>50</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>365</v>
+      </c>
+      <c r="E20" s="4">
+        <v>128</v>
+      </c>
+      <c r="F20" s="4">
+        <v>600</v>
+      </c>
+      <c r="G20" s="4">
+        <v>50</v>
+      </c>
+      <c r="H20" s="4">
+        <v>150</v>
+      </c>
+      <c r="I20" s="4">
+        <v>100</v>
+      </c>
+      <c r="J20" s="4">
+        <v>50</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>365</v>
+      </c>
+      <c r="E21" s="2">
+        <v>512</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="2">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2">
+        <v>200</v>
+      </c>
+      <c r="I21" s="2">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2">
+        <v>50</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>365</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>600</v>
+      </c>
+      <c r="G22" s="4">
+        <v>50</v>
+      </c>
+      <c r="H22" s="4">
+        <v>150</v>
+      </c>
+      <c r="I22" s="4">
+        <v>100</v>
+      </c>
+      <c r="J22" s="4">
+        <v>50</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>365</v>
+      </c>
+      <c r="E23" s="4">
+        <v>128</v>
+      </c>
+      <c r="F23" s="4">
+        <v>600</v>
+      </c>
+      <c r="G23" s="4">
+        <v>50</v>
+      </c>
+      <c r="H23" s="4">
+        <v>150</v>
+      </c>
+      <c r="I23" s="4">
+        <v>100</v>
+      </c>
+      <c r="J23" s="4">
+        <v>50</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>730</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" s="2">
+        <v>250</v>
+      </c>
+      <c r="I24" s="2">
+        <v>100</v>
+      </c>
+      <c r="J24" s="2">
+        <v>50</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>365</v>
+      </c>
+      <c r="E25" s="2">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2">
+        <v>600</v>
+      </c>
+      <c r="G25" s="2">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2">
+        <v>150</v>
+      </c>
+      <c r="I25" s="2">
+        <v>100</v>
+      </c>
+      <c r="J25" s="2">
+        <v>50</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>365</v>
+      </c>
+      <c r="E26" s="2">
+        <v>512</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>50</v>
+      </c>
+      <c r="H26" s="2">
+        <v>200</v>
+      </c>
+      <c r="I26" s="2">
+        <v>100</v>
+      </c>
+      <c r="J26" s="2">
+        <v>50</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>365</v>
+      </c>
+      <c r="E27" s="2">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2">
+        <v>600</v>
+      </c>
+      <c r="G27" s="2">
+        <v>50</v>
+      </c>
+      <c r="H27" s="2">
+        <v>150</v>
+      </c>
+      <c r="I27" s="2">
+        <v>100</v>
+      </c>
+      <c r="J27" s="2">
+        <v>50</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>365</v>
+      </c>
+      <c r="E28" s="3">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3">
+        <v>600</v>
+      </c>
+      <c r="G28" s="3">
+        <v>50</v>
+      </c>
+      <c r="H28" s="3">
+        <v>150</v>
+      </c>
+      <c r="I28" s="3">
+        <v>100</v>
+      </c>
+      <c r="J28" s="3">
+        <v>50</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>730</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>50</v>
+      </c>
+      <c r="H29" s="3">
+        <v>250</v>
+      </c>
+      <c r="I29" s="3">
+        <v>100</v>
+      </c>
+      <c r="J29" s="3">
+        <v>50</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>730</v>
+      </c>
+      <c r="E30" s="2">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="2">
+        <v>40</v>
+      </c>
+      <c r="H30" s="2">
+        <v>250</v>
+      </c>
+      <c r="I30" s="2">
+        <v>100</v>
+      </c>
+      <c r="J30" s="2">
+        <v>50</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N16">
-    <sortCondition ref="B2:B16"/>
-    <sortCondition ref="D2:D16"/>
-    <sortCondition ref="E2:E16"/>
-    <sortCondition ref="F2:F16"/>
-    <sortCondition ref="G2:G16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N32">
+    <sortCondition descending="1" ref="A2:A32"/>
+    <sortCondition ref="B2:B32"/>
+    <sortCondition ref="D2:D32"/>
+    <sortCondition ref="E2:E32"/>
+    <sortCondition ref="F2:F32"/>
+    <sortCondition ref="G2:G32"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/multi_stocks_multi_predictions_learning_parameters.xlsx
+++ b/multi_stocks_multi_predictions_learning_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dickli/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22091DA-985A-CF41-9E67-588879F8C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11B9A5-32E7-A94A-B7D1-645BAB748141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="3140" windowWidth="27640" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="740" windowWidth="20580" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multi_stocks_multi_predictions_" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -573,18 +573,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -942,1348 +939,1744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="12.6640625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>365</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>800</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <v>150</v>
+      </c>
+      <c r="I2" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>365</v>
+      </c>
+      <c r="E3" s="1">
+        <v>128</v>
+      </c>
+      <c r="F3" s="1">
+        <v>400</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>150</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>365</v>
+      </c>
+      <c r="E4" s="2">
+        <v>128</v>
+      </c>
+      <c r="F4" s="2">
+        <v>600</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <v>150</v>
+      </c>
+      <c r="I4" s="2">
+        <v>100</v>
+      </c>
+      <c r="J4" s="2">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>365</v>
+      </c>
+      <c r="E5" s="1">
+        <v>512</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
+        <v>200</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>365</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>600</v>
+      </c>
+      <c r="G6" s="2">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2">
+        <v>150</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>365</v>
+      </c>
+      <c r="E7" s="2">
+        <v>128</v>
+      </c>
+      <c r="F7" s="2">
+        <v>600</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
+        <v>150</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>730</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1">
+        <v>250</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+      <c r="J8" s="1">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>365</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>600</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>150</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1">
+        <v>50</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>365</v>
+      </c>
+      <c r="E10" s="1">
+        <v>512</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1">
+        <v>200</v>
+      </c>
+      <c r="I10" s="1">
+        <v>100</v>
+      </c>
+      <c r="J10" s="1">
+        <v>50</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>365</v>
+      </c>
+      <c r="E11" s="1">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>600</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>150</v>
+      </c>
+      <c r="I11" s="1">
+        <v>100</v>
+      </c>
+      <c r="J11" s="1">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>365</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>600</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1">
+        <v>150</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>730</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1">
+        <v>250</v>
+      </c>
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1">
+        <v>50</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>730</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1">
+        <v>250</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1">
+        <v>50</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>44802</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
         <v>365</v>
       </c>
-      <c r="E2">
+      <c r="E15" s="1">
         <v>128</v>
       </c>
-      <c r="F2">
+      <c r="F15" s="1">
         <v>600</v>
       </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1">
         <v>150</v>
       </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="K2">
+      <c r="I15" s="1">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1">
+        <v>50</v>
+      </c>
+      <c r="K15" s="1">
         <v>0.1</v>
       </c>
-      <c r="L2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="L15" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>44802</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>365</v>
       </c>
-      <c r="E3">
+      <c r="E16" s="1">
         <v>512</v>
       </c>
-      <c r="F3">
+      <c r="F16" s="1">
         <v>1000</v>
       </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
+      <c r="G16" s="1">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1">
         <v>200</v>
       </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
-        <v>0.2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1">
+        <v>50</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>44802</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>730</v>
       </c>
-      <c r="E4">
+      <c r="E17" s="1">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="F17" s="1">
         <v>1000</v>
       </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
+      <c r="G17" s="1">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1">
         <v>250</v>
       </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4">
-        <v>0.2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1">
+        <v>50</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>44802</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>730</v>
       </c>
-      <c r="E5">
+      <c r="E18" s="1">
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="F18" s="1">
         <v>1000</v>
       </c>
-      <c r="G5">
+      <c r="G18" s="1">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="H18" s="1">
         <v>250</v>
       </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1">
+        <v>50</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>44802</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
         <v>365</v>
       </c>
-      <c r="E6">
+      <c r="E19" s="1">
         <v>128</v>
       </c>
-      <c r="F6">
+      <c r="F19" s="1">
         <v>600</v>
       </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
+      <c r="G19" s="1">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1">
         <v>150</v>
       </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="K6">
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+      <c r="J19" s="1">
+        <v>50</v>
+      </c>
+      <c r="K19" s="1">
         <v>0.1</v>
       </c>
-      <c r="L6" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="L19" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>44802</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>365</v>
       </c>
-      <c r="E7">
+      <c r="E20" s="1">
         <v>512</v>
       </c>
-      <c r="F7">
+      <c r="F20" s="1">
         <v>1000</v>
       </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
+      <c r="G20" s="1">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1">
         <v>200</v>
       </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7">
-        <v>0.2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1">
+        <v>50</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>44802</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <v>730</v>
       </c>
-      <c r="E8">
+      <c r="E21" s="1">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="F21" s="1">
         <v>1000</v>
       </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
+      <c r="G21" s="1">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1">
         <v>250</v>
       </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-      <c r="K8">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="I21" s="1">
+        <v>100</v>
+      </c>
+      <c r="J21" s="1">
+        <v>50</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>44802</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>730</v>
       </c>
-      <c r="E9">
+      <c r="E22" s="1">
         <v>7</v>
       </c>
-      <c r="F9">
+      <c r="F22" s="1">
         <v>1000</v>
       </c>
-      <c r="G9">
+      <c r="G22" s="1">
         <v>40</v>
       </c>
-      <c r="H9">
+      <c r="H22" s="1">
         <v>250</v>
       </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+      <c r="J22" s="1">
+        <v>50</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>44802</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
         <v>365</v>
       </c>
-      <c r="E10">
+      <c r="E23" s="1">
         <v>128</v>
       </c>
-      <c r="F10">
+      <c r="F23" s="1">
         <v>600</v>
       </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="H10">
+      <c r="G23" s="1">
+        <v>50</v>
+      </c>
+      <c r="H23" s="1">
         <v>150</v>
       </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
-      <c r="K10">
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+      <c r="J23" s="1">
+        <v>50</v>
+      </c>
+      <c r="K23" s="1">
         <v>0.1</v>
       </c>
-      <c r="L10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="L23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>44802</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>365</v>
       </c>
-      <c r="E11">
+      <c r="E24" s="1">
         <v>512</v>
       </c>
-      <c r="F11">
+      <c r="F24" s="1">
         <v>1000</v>
       </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11">
+      <c r="G24" s="1">
+        <v>50</v>
+      </c>
+      <c r="H24" s="1">
         <v>200</v>
       </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-      <c r="K11">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+      <c r="J24" s="1">
+        <v>50</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>44802</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <v>730</v>
       </c>
-      <c r="E12">
+      <c r="E25" s="1">
         <v>6</v>
       </c>
-      <c r="F12">
+      <c r="F25" s="1">
         <v>1000</v>
       </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12">
+      <c r="G25" s="1">
+        <v>50</v>
+      </c>
+      <c r="H25" s="1">
         <v>250</v>
       </c>
-      <c r="I12">
-        <v>100</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-      <c r="K12">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1">
+        <v>50</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>44802</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
         <v>730</v>
       </c>
-      <c r="E13">
+      <c r="E26" s="1">
         <v>7</v>
       </c>
-      <c r="F13">
+      <c r="F26" s="1">
         <v>1000</v>
       </c>
-      <c r="G13">
+      <c r="G26" s="1">
         <v>40</v>
       </c>
-      <c r="H13">
+      <c r="H26" s="1">
         <v>250</v>
       </c>
-      <c r="I13">
-        <v>100</v>
-      </c>
-      <c r="J13">
-        <v>50</v>
-      </c>
-      <c r="K13">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1">
+        <v>50</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>44802</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
         <v>365</v>
       </c>
-      <c r="E14">
+      <c r="E27" s="1">
         <v>128</v>
       </c>
-      <c r="F14">
+      <c r="F27" s="1">
         <v>600</v>
       </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14">
+      <c r="G27" s="1">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1">
         <v>150</v>
       </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-      <c r="J14">
-        <v>50</v>
-      </c>
-      <c r="K14">
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1">
+        <v>50</v>
+      </c>
+      <c r="K27" s="1">
         <v>0.1</v>
       </c>
-      <c r="L14" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="L27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>44802</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
         <v>365</v>
       </c>
-      <c r="E15">
+      <c r="E28" s="1">
         <v>512</v>
       </c>
-      <c r="F15">
+      <c r="F28" s="1">
         <v>1000</v>
       </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-      <c r="H15">
+      <c r="G28" s="1">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1">
         <v>200</v>
       </c>
-      <c r="I15">
-        <v>100</v>
-      </c>
-      <c r="J15">
-        <v>50</v>
-      </c>
-      <c r="K15">
-        <v>0.2</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1">
+        <v>50</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>44802</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>730</v>
       </c>
-      <c r="E16">
+      <c r="E29" s="1">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F29" s="1">
         <v>1000</v>
       </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
+      <c r="G29" s="1">
+        <v>50</v>
+      </c>
+      <c r="H29" s="1">
         <v>250</v>
       </c>
-      <c r="I16">
-        <v>100</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16">
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="I29" s="1">
+        <v>100</v>
+      </c>
+      <c r="J29" s="1">
+        <v>50</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>44802</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
         <v>730</v>
       </c>
-      <c r="E17">
+      <c r="E30" s="1">
         <v>7</v>
       </c>
-      <c r="F17">
+      <c r="F30" s="1">
         <v>1000</v>
       </c>
-      <c r="G17">
+      <c r="G30" s="1">
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="H30" s="1">
         <v>250</v>
       </c>
-      <c r="I17">
-        <v>100</v>
-      </c>
-      <c r="J17">
-        <v>50</v>
-      </c>
-      <c r="K17">
-        <v>0.2</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="I30" s="1">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1">
+        <v>50</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
         <v>365</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
         <v>800</v>
       </c>
-      <c r="G18" s="4">
-        <v>50</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G31" s="2">
+        <v>50</v>
+      </c>
+      <c r="H31" s="2">
         <v>150</v>
       </c>
-      <c r="I18" s="4">
-        <v>100</v>
-      </c>
-      <c r="J18" s="4">
-        <v>50</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="I31" s="2">
+        <v>100</v>
+      </c>
+      <c r="J31" s="2">
+        <v>50</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
         <v>365</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E32" s="1">
         <v>128</v>
       </c>
-      <c r="F19" s="2">
-        <v>400</v>
-      </c>
-      <c r="G19" s="2">
-        <v>50</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="F32" s="1">
+        <v>600</v>
+      </c>
+      <c r="G32" s="1">
+        <v>50</v>
+      </c>
+      <c r="H32" s="1">
         <v>150</v>
       </c>
-      <c r="I19" s="2">
-        <v>100</v>
-      </c>
-      <c r="J19" s="2">
-        <v>50</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+      <c r="J32" s="1">
+        <v>50</v>
+      </c>
+      <c r="K32" s="1">
         <v>0.1</v>
       </c>
-      <c r="L19" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="L32" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
         <v>365</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E33" s="1">
+        <v>512</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>50</v>
+      </c>
+      <c r="H33" s="1">
+        <v>200</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1">
+        <v>50</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>365</v>
+      </c>
+      <c r="E34" s="2">
         <v>128</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F34" s="2">
         <v>600</v>
       </c>
-      <c r="G20" s="4">
-        <v>50</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G34" s="2">
+        <v>50</v>
+      </c>
+      <c r="H34" s="2">
         <v>150</v>
       </c>
-      <c r="I20" s="4">
-        <v>100</v>
-      </c>
-      <c r="J20" s="4">
-        <v>50</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="I34" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" s="2">
+        <v>50</v>
+      </c>
+      <c r="K34" s="2">
         <v>0.1</v>
       </c>
-      <c r="L20" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="L34" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>730</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>40</v>
+      </c>
+      <c r="H35" s="1">
+        <v>250</v>
+      </c>
+      <c r="I35" s="1">
+        <v>100</v>
+      </c>
+      <c r="J35" s="1">
+        <v>50</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
         <v>365</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E36" s="1">
         <v>512</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F36" s="1">
         <v>1000</v>
       </c>
-      <c r="G21" s="2">
-        <v>50</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G36" s="1">
+        <v>50</v>
+      </c>
+      <c r="H36" s="1">
         <v>200</v>
       </c>
-      <c r="I21" s="2">
-        <v>100</v>
-      </c>
-      <c r="J21" s="2">
-        <v>50</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="I36" s="1">
+        <v>100</v>
+      </c>
+      <c r="J36" s="1">
+        <v>50</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
         <v>365</v>
       </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="E37" s="1">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1">
         <v>600</v>
       </c>
-      <c r="G22" s="4">
-        <v>50</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G37" s="1">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1">
         <v>150</v>
       </c>
-      <c r="I22" s="4">
-        <v>100</v>
-      </c>
-      <c r="J22" s="4">
-        <v>50</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="I37" s="1">
+        <v>100</v>
+      </c>
+      <c r="J37" s="1">
+        <v>50</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
         <v>365</v>
       </c>
-      <c r="E23" s="4">
-        <v>128</v>
-      </c>
-      <c r="F23" s="4">
-        <v>600</v>
-      </c>
-      <c r="G23" s="4">
-        <v>50</v>
-      </c>
-      <c r="H23" s="4">
-        <v>150</v>
-      </c>
-      <c r="I23" s="4">
-        <v>100</v>
-      </c>
-      <c r="J23" s="4">
-        <v>50</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="E38" s="1">
+        <v>512</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1">
+        <v>200</v>
+      </c>
+      <c r="I38" s="1">
+        <v>100</v>
+      </c>
+      <c r="J38" s="1">
+        <v>50</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
         <v>730</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E39" s="1">
         <v>7</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F39" s="1">
         <v>1000</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G39" s="1">
         <v>40</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H39" s="1">
         <v>250</v>
       </c>
-      <c r="I24" s="2">
-        <v>100</v>
-      </c>
-      <c r="J24" s="2">
-        <v>50</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>365</v>
-      </c>
-      <c r="E25" s="2">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2">
-        <v>600</v>
-      </c>
-      <c r="G25" s="2">
-        <v>50</v>
-      </c>
-      <c r="H25" s="2">
-        <v>150</v>
-      </c>
-      <c r="I25" s="2">
-        <v>100</v>
-      </c>
-      <c r="J25" s="2">
-        <v>50</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>365</v>
-      </c>
-      <c r="E26" s="2">
-        <v>512</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G26" s="2">
-        <v>50</v>
-      </c>
-      <c r="H26" s="2">
-        <v>200</v>
-      </c>
-      <c r="I26" s="2">
-        <v>100</v>
-      </c>
-      <c r="J26" s="2">
-        <v>50</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>365</v>
-      </c>
-      <c r="E27" s="2">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2">
-        <v>600</v>
-      </c>
-      <c r="G27" s="2">
-        <v>50</v>
-      </c>
-      <c r="H27" s="2">
-        <v>150</v>
-      </c>
-      <c r="I27" s="2">
-        <v>100</v>
-      </c>
-      <c r="J27" s="2">
-        <v>50</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>365</v>
-      </c>
-      <c r="E28" s="3">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3">
-        <v>600</v>
-      </c>
-      <c r="G28" s="3">
-        <v>50</v>
-      </c>
-      <c r="H28" s="3">
-        <v>150</v>
-      </c>
-      <c r="I28" s="3">
-        <v>100</v>
-      </c>
-      <c r="J28" s="3">
-        <v>50</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>730</v>
-      </c>
-      <c r="E29" s="3">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G29" s="3">
-        <v>50</v>
-      </c>
-      <c r="H29" s="3">
-        <v>250</v>
-      </c>
-      <c r="I29" s="3">
-        <v>100</v>
-      </c>
-      <c r="J29" s="3">
-        <v>50</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>730</v>
-      </c>
-      <c r="E30" s="2">
-        <v>7</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G30" s="2">
-        <v>40</v>
-      </c>
-      <c r="H30" s="2">
-        <v>250</v>
-      </c>
-      <c r="I30" s="2">
-        <v>100</v>
-      </c>
-      <c r="J30" s="2">
-        <v>50</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
+      <c r="I39" s="1">
+        <v>100</v>
+      </c>
+      <c r="J39" s="1">
+        <v>50</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N32">
-    <sortCondition descending="1" ref="A2:A32"/>
-    <sortCondition ref="B2:B32"/>
-    <sortCondition ref="D2:D32"/>
-    <sortCondition ref="E2:E32"/>
-    <sortCondition ref="F2:F32"/>
-    <sortCondition ref="G2:G32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O39">
+    <sortCondition ref="A2:A39"/>
+    <sortCondition ref="B2:B39"/>
+    <sortCondition ref="D2:D39"/>
+    <sortCondition ref="E2:E39"/>
+    <sortCondition ref="F2:F39"/>
+    <sortCondition ref="G2:G39"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/multi_stocks_multi_predictions_learning_parameters.xlsx
+++ b/multi_stocks_multi_predictions_learning_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dickli/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11B9A5-32E7-A94A-B7D1-645BAB748141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E5D68-C5AD-504E-AE84-BBC804B16B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="740" windowWidth="20580" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -573,16 +573,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -939,61 +942,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="12.6640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1001,43 +1004,43 @@
       <c r="A2" s="3">
         <v>44799</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>365</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
         <v>800</v>
       </c>
-      <c r="G2" s="2">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="4">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4">
         <v>150</v>
       </c>
-      <c r="I2" s="2">
-        <v>100</v>
-      </c>
-      <c r="J2" s="2">
-        <v>50</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="I2" s="4">
+        <v>100</v>
+      </c>
+      <c r="J2" s="4">
+        <v>50</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1045,43 +1048,43 @@
       <c r="A3" s="3">
         <v>44799</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>365</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>128</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>400</v>
       </c>
-      <c r="G3" s="1">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G3" s="2">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
         <v>150</v>
       </c>
-      <c r="I3" s="1">
-        <v>100</v>
-      </c>
-      <c r="J3" s="1">
-        <v>50</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="I3" s="2">
+        <v>100</v>
+      </c>
+      <c r="J3" s="2">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2">
         <v>0.1</v>
       </c>
-      <c r="L3" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="L3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1089,43 +1092,43 @@
       <c r="A4" s="3">
         <v>44799</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>365</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>128</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>600</v>
       </c>
-      <c r="G4" s="2">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="4">
         <v>150</v>
       </c>
-      <c r="I4" s="2">
-        <v>100</v>
-      </c>
-      <c r="J4" s="2">
-        <v>50</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="I4" s="4">
+        <v>100</v>
+      </c>
+      <c r="J4" s="4">
+        <v>50</v>
+      </c>
+      <c r="K4" s="4">
         <v>0.1</v>
       </c>
-      <c r="L4" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="L4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1133,43 +1136,43 @@
       <c r="A5" s="3">
         <v>44799</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>365</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>512</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>1000</v>
       </c>
-      <c r="G5" s="1">
-        <v>50</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="2">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
         <v>200</v>
       </c>
-      <c r="I5" s="1">
-        <v>100</v>
-      </c>
-      <c r="J5" s="1">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1177,43 +1180,43 @@
       <c r="A6" s="3">
         <v>44799</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>365</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>600</v>
       </c>
-      <c r="G6" s="2">
-        <v>50</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="4">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4">
         <v>150</v>
       </c>
-      <c r="I6" s="2">
-        <v>100</v>
-      </c>
-      <c r="J6" s="2">
-        <v>50</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="I6" s="4">
+        <v>100</v>
+      </c>
+      <c r="J6" s="4">
+        <v>50</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1221,43 +1224,43 @@
       <c r="A7" s="3">
         <v>44799</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>365</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>128</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>600</v>
       </c>
-      <c r="G7" s="2">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="4">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
         <v>150</v>
       </c>
-      <c r="I7" s="2">
-        <v>100</v>
-      </c>
-      <c r="J7" s="2">
-        <v>50</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="I7" s="4">
+        <v>100</v>
+      </c>
+      <c r="J7" s="4">
+        <v>50</v>
+      </c>
+      <c r="K7" s="4">
         <v>0.1</v>
       </c>
-      <c r="L7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="L7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1265,43 +1268,43 @@
       <c r="A8" s="3">
         <v>44799</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>730</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>1000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>40</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>250</v>
       </c>
-      <c r="I8" s="1">
-        <v>100</v>
-      </c>
-      <c r="J8" s="1">
-        <v>50</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1309,43 +1312,43 @@
       <c r="A9" s="3">
         <v>44799</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
         <v>365</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>12</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>600</v>
       </c>
-      <c r="G9" s="1">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="2">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
         <v>150</v>
       </c>
-      <c r="I9" s="1">
-        <v>100</v>
-      </c>
-      <c r="J9" s="1">
-        <v>50</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1353,43 +1356,43 @@
       <c r="A10" s="3">
         <v>44799</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>365</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>512</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>1000</v>
       </c>
-      <c r="G10" s="1">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G10" s="2">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
         <v>200</v>
       </c>
-      <c r="I10" s="1">
-        <v>100</v>
-      </c>
-      <c r="J10" s="1">
-        <v>50</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1397,43 +1400,43 @@
       <c r="A11" s="3">
         <v>44799</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>365</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>12</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>600</v>
       </c>
-      <c r="G11" s="1">
-        <v>50</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
         <v>150</v>
       </c>
-      <c r="I11" s="1">
-        <v>100</v>
-      </c>
-      <c r="J11" s="1">
-        <v>50</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="I11" s="2">
+        <v>100</v>
+      </c>
+      <c r="J11" s="2">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1441,43 +1444,43 @@
       <c r="A12" s="3">
         <v>44799</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
         <v>365</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>12</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>600</v>
       </c>
-      <c r="G12" s="1">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="G12" s="2">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
         <v>150</v>
       </c>
-      <c r="I12" s="1">
-        <v>100</v>
-      </c>
-      <c r="J12" s="1">
-        <v>50</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1485,43 +1488,43 @@
       <c r="A13" s="3">
         <v>44799</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
         <v>730</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>6</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>1000</v>
       </c>
-      <c r="G13" s="1">
-        <v>50</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="2">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2">
         <v>250</v>
       </c>
-      <c r="I13" s="1">
-        <v>100</v>
-      </c>
-      <c r="J13" s="1">
-        <v>50</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1529,43 +1532,43 @@
       <c r="A14" s="3">
         <v>44799</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
         <v>730</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>7</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>1000</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>40</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>250</v>
       </c>
-      <c r="I14" s="1">
-        <v>100</v>
-      </c>
-      <c r="J14" s="1">
-        <v>50</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1573,43 +1576,43 @@
       <c r="A15" s="3">
         <v>44802</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
         <v>365</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>128</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>600</v>
       </c>
-      <c r="G15" s="1">
-        <v>50</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G15" s="2">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2">
         <v>150</v>
       </c>
-      <c r="I15" s="1">
-        <v>100</v>
-      </c>
-      <c r="J15" s="1">
-        <v>50</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+      <c r="J15" s="2">
+        <v>50</v>
+      </c>
+      <c r="K15" s="2">
         <v>0.1</v>
       </c>
-      <c r="L15" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="L15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1617,43 +1620,43 @@
       <c r="A16" s="3">
         <v>44802</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
         <v>365</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>512</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>1000</v>
       </c>
-      <c r="G16" s="1">
-        <v>50</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="2">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2">
         <v>200</v>
       </c>
-      <c r="I16" s="1">
-        <v>100</v>
-      </c>
-      <c r="J16" s="1">
-        <v>50</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <v>50</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1661,43 +1664,43 @@
       <c r="A17" s="3">
         <v>44802</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>730</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>6</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>1000</v>
       </c>
-      <c r="G17" s="1">
-        <v>50</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="G17" s="2">
+        <v>50</v>
+      </c>
+      <c r="H17" s="2">
         <v>250</v>
       </c>
-      <c r="I17" s="1">
-        <v>100</v>
-      </c>
-      <c r="J17" s="1">
-        <v>50</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+      <c r="J17" s="2">
+        <v>50</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1705,43 +1708,43 @@
       <c r="A18" s="3">
         <v>44802</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
         <v>730</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>7</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>1000</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>40</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>250</v>
       </c>
-      <c r="I18" s="1">
-        <v>100</v>
-      </c>
-      <c r="J18" s="1">
-        <v>50</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+      <c r="J18" s="2">
+        <v>50</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1749,43 +1752,43 @@
       <c r="A19" s="3">
         <v>44802</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
         <v>365</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>128</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>600</v>
       </c>
-      <c r="G19" s="1">
-        <v>50</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="G19" s="2">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2">
         <v>150</v>
       </c>
-      <c r="I19" s="1">
-        <v>100</v>
-      </c>
-      <c r="J19" s="1">
-        <v>50</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2">
+        <v>50</v>
+      </c>
+      <c r="K19" s="2">
         <v>0.1</v>
       </c>
-      <c r="L19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="L19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1793,43 +1796,43 @@
       <c r="A20" s="3">
         <v>44802</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
         <v>365</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>512</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>1000</v>
       </c>
-      <c r="G20" s="1">
-        <v>50</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20" s="2">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2">
         <v>200</v>
       </c>
-      <c r="I20" s="1">
-        <v>100</v>
-      </c>
-      <c r="J20" s="1">
-        <v>50</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="I20" s="2">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2">
+        <v>50</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1837,43 +1840,43 @@
       <c r="A21" s="3">
         <v>44802</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
         <v>730</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>6</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>1000</v>
       </c>
-      <c r="G21" s="1">
-        <v>50</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="G21" s="2">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2">
         <v>250</v>
       </c>
-      <c r="I21" s="1">
-        <v>100</v>
-      </c>
-      <c r="J21" s="1">
-        <v>50</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="I21" s="2">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2">
+        <v>50</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1881,43 +1884,43 @@
       <c r="A22" s="3">
         <v>44802</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>730</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>7</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>1000</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>40</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>250</v>
       </c>
-      <c r="I22" s="1">
-        <v>100</v>
-      </c>
-      <c r="J22" s="1">
-        <v>50</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="I22" s="2">
+        <v>100</v>
+      </c>
+      <c r="J22" s="2">
+        <v>50</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1925,43 +1928,43 @@
       <c r="A23" s="3">
         <v>44802</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
         <v>365</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>128</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>600</v>
       </c>
-      <c r="G23" s="1">
-        <v>50</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="G23" s="2">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2">
         <v>150</v>
       </c>
-      <c r="I23" s="1">
-        <v>100</v>
-      </c>
-      <c r="J23" s="1">
-        <v>50</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="I23" s="2">
+        <v>100</v>
+      </c>
+      <c r="J23" s="2">
+        <v>50</v>
+      </c>
+      <c r="K23" s="2">
         <v>0.1</v>
       </c>
-      <c r="L23" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="L23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1969,43 +1972,43 @@
       <c r="A24" s="3">
         <v>44802</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
         <v>365</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>512</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>1000</v>
       </c>
-      <c r="G24" s="1">
-        <v>50</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="G24" s="2">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2">
         <v>200</v>
       </c>
-      <c r="I24" s="1">
-        <v>100</v>
-      </c>
-      <c r="J24" s="1">
-        <v>50</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="I24" s="2">
+        <v>100</v>
+      </c>
+      <c r="J24" s="2">
+        <v>50</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2013,43 +2016,43 @@
       <c r="A25" s="3">
         <v>44802</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
         <v>730</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>6</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>1000</v>
       </c>
-      <c r="G25" s="1">
-        <v>50</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="G25" s="2">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2">
         <v>250</v>
       </c>
-      <c r="I25" s="1">
-        <v>100</v>
-      </c>
-      <c r="J25" s="1">
-        <v>50</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="I25" s="2">
+        <v>100</v>
+      </c>
+      <c r="J25" s="2">
+        <v>50</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2057,43 +2060,43 @@
       <c r="A26" s="3">
         <v>44802</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
         <v>730</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>7</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>1000</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>40</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>250</v>
       </c>
-      <c r="I26" s="1">
-        <v>100</v>
-      </c>
-      <c r="J26" s="1">
-        <v>50</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="I26" s="2">
+        <v>100</v>
+      </c>
+      <c r="J26" s="2">
+        <v>50</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2101,43 +2104,43 @@
       <c r="A27" s="3">
         <v>44802</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
         <v>365</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>128</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>600</v>
       </c>
-      <c r="G27" s="1">
-        <v>50</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G27" s="2">
+        <v>50</v>
+      </c>
+      <c r="H27" s="2">
         <v>150</v>
       </c>
-      <c r="I27" s="1">
-        <v>100</v>
-      </c>
-      <c r="J27" s="1">
-        <v>50</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="I27" s="2">
+        <v>100</v>
+      </c>
+      <c r="J27" s="2">
+        <v>50</v>
+      </c>
+      <c r="K27" s="2">
         <v>0.1</v>
       </c>
-      <c r="L27" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="L27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2145,43 +2148,43 @@
       <c r="A28" s="3">
         <v>44802</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
         <v>365</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>512</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>1000</v>
       </c>
-      <c r="G28" s="1">
-        <v>50</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="G28" s="2">
+        <v>50</v>
+      </c>
+      <c r="H28" s="2">
         <v>200</v>
       </c>
-      <c r="I28" s="1">
-        <v>100</v>
-      </c>
-      <c r="J28" s="1">
-        <v>50</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="I28" s="2">
+        <v>100</v>
+      </c>
+      <c r="J28" s="2">
+        <v>50</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2189,43 +2192,43 @@
       <c r="A29" s="3">
         <v>44802</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
         <v>730</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>6</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>1000</v>
       </c>
-      <c r="G29" s="1">
-        <v>50</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="G29" s="2">
+        <v>50</v>
+      </c>
+      <c r="H29" s="2">
         <v>250</v>
       </c>
-      <c r="I29" s="1">
-        <v>100</v>
-      </c>
-      <c r="J29" s="1">
-        <v>50</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="I29" s="2">
+        <v>100</v>
+      </c>
+      <c r="J29" s="2">
+        <v>50</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2233,43 +2236,43 @@
       <c r="A30" s="3">
         <v>44802</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
         <v>730</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>7</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>1000</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>40</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>250</v>
       </c>
-      <c r="I30" s="1">
-        <v>100</v>
-      </c>
-      <c r="J30" s="1">
-        <v>50</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
+      <c r="I30" s="2">
+        <v>100</v>
+      </c>
+      <c r="J30" s="2">
+        <v>50</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2277,7 +2280,7 @@
       <c r="A31" s="3">
         <v>44803</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="2">
@@ -2287,16 +2290,16 @@
         <v>365</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
+        <v>512</v>
       </c>
       <c r="F31" s="2">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G31" s="2">
         <v>50</v>
       </c>
       <c r="H31" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I31" s="2">
         <v>100</v>
@@ -2307,13 +2310,13 @@
       <c r="K31" s="2">
         <v>0.2</v>
       </c>
-      <c r="L31" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1">
+      <c r="L31" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2321,43 +2324,43 @@
       <c r="A32" s="3">
         <v>44803</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>365</v>
-      </c>
-      <c r="E32" s="1">
-        <v>128</v>
-      </c>
-      <c r="F32" s="1">
-        <v>600</v>
-      </c>
-      <c r="G32" s="1">
-        <v>50</v>
-      </c>
-      <c r="H32" s="1">
-        <v>150</v>
-      </c>
-      <c r="I32" s="1">
-        <v>100</v>
-      </c>
-      <c r="J32" s="1">
-        <v>50</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>730</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>40</v>
+      </c>
+      <c r="H32" s="2">
+        <v>250</v>
+      </c>
+      <c r="I32" s="2">
+        <v>100</v>
+      </c>
+      <c r="J32" s="2">
+        <v>50</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2365,43 +2368,43 @@
       <c r="A33" s="3">
         <v>44803</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
         <v>365</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>512</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>1000</v>
       </c>
-      <c r="G33" s="1">
-        <v>50</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="G33" s="2">
+        <v>50</v>
+      </c>
+      <c r="H33" s="2">
         <v>200</v>
       </c>
-      <c r="I33" s="1">
-        <v>100</v>
-      </c>
-      <c r="J33" s="1">
-        <v>50</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
+      <c r="I33" s="2">
+        <v>100</v>
+      </c>
+      <c r="J33" s="2">
+        <v>50</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2409,274 +2412,54 @@
       <c r="A34" s="3">
         <v>44803</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="2">
-        <v>365</v>
-      </c>
-      <c r="E34" s="2">
-        <v>128</v>
-      </c>
-      <c r="F34" s="2">
-        <v>600</v>
-      </c>
-      <c r="G34" s="2">
-        <v>50</v>
-      </c>
-      <c r="H34" s="2">
-        <v>150</v>
-      </c>
-      <c r="I34" s="2">
-        <v>100</v>
-      </c>
-      <c r="J34" s="2">
-        <v>50</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>44803</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="D34" s="1">
         <v>730</v>
       </c>
-      <c r="E35" s="1">
-        <v>7</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E34" s="1">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1">
         <v>1000</v>
       </c>
-      <c r="G35" s="1">
-        <v>40</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="G34" s="1">
+        <v>50</v>
+      </c>
+      <c r="H34" s="1">
         <v>250</v>
       </c>
-      <c r="I35" s="1">
-        <v>100</v>
-      </c>
-      <c r="J35" s="1">
-        <v>50</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>44803</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>365</v>
-      </c>
-      <c r="E36" s="1">
-        <v>512</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G36" s="1">
-        <v>50</v>
-      </c>
-      <c r="H36" s="1">
-        <v>200</v>
-      </c>
-      <c r="I36" s="1">
-        <v>100</v>
-      </c>
-      <c r="J36" s="1">
-        <v>50</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>44803</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>365</v>
-      </c>
-      <c r="E37" s="1">
-        <v>12</v>
-      </c>
-      <c r="F37" s="1">
-        <v>600</v>
-      </c>
-      <c r="G37" s="1">
-        <v>50</v>
-      </c>
-      <c r="H37" s="1">
-        <v>150</v>
-      </c>
-      <c r="I37" s="1">
-        <v>100</v>
-      </c>
-      <c r="J37" s="1">
-        <v>50</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>44803</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>365</v>
-      </c>
-      <c r="E38" s="1">
-        <v>512</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G38" s="1">
-        <v>50</v>
-      </c>
-      <c r="H38" s="1">
-        <v>200</v>
-      </c>
-      <c r="I38" s="1">
-        <v>100</v>
-      </c>
-      <c r="J38" s="1">
-        <v>50</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>44803</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>730</v>
-      </c>
-      <c r="E39" s="1">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G39" s="1">
-        <v>40</v>
-      </c>
-      <c r="H39" s="1">
-        <v>250</v>
-      </c>
-      <c r="I39" s="1">
-        <v>100</v>
-      </c>
-      <c r="J39" s="1">
-        <v>50</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
+      <c r="I34" s="1">
+        <v>100</v>
+      </c>
+      <c r="J34" s="1">
+        <v>50</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O39">
-    <sortCondition ref="A2:A39"/>
-    <sortCondition ref="B2:B39"/>
-    <sortCondition ref="D2:D39"/>
-    <sortCondition ref="E2:E39"/>
-    <sortCondition ref="F2:F39"/>
-    <sortCondition ref="G2:G39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O34">
+    <sortCondition ref="A2:A34"/>
+    <sortCondition ref="B2:B34"/>
+    <sortCondition ref="D2:D34"/>
+    <sortCondition ref="E2:E34"/>
+    <sortCondition ref="F2:F34"/>
+    <sortCondition ref="G2:G34"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/multi_stocks_multi_predictions_learning_parameters.xlsx
+++ b/multi_stocks_multi_predictions_learning_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dickli/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E5D68-C5AD-504E-AE84-BBC804B16B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54858ACB-4F4E-B146-8106-C21BD1F5E292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="740" windowWidth="20580" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -573,7 +573,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -586,6 +586,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -942,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2452,6 +2458,358 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>365</v>
+      </c>
+      <c r="E35" s="1">
+        <v>128</v>
+      </c>
+      <c r="F35" s="1">
+        <v>600</v>
+      </c>
+      <c r="G35" s="1">
+        <v>50</v>
+      </c>
+      <c r="H35" s="1">
+        <v>150</v>
+      </c>
+      <c r="I35" s="1">
+        <v>100</v>
+      </c>
+      <c r="J35" s="1">
+        <v>50</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>365</v>
+      </c>
+      <c r="E36" s="1">
+        <v>512</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>50</v>
+      </c>
+      <c r="H36" s="1">
+        <v>200</v>
+      </c>
+      <c r="I36" s="1">
+        <v>100</v>
+      </c>
+      <c r="J36" s="1">
+        <v>50</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>44804</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>365</v>
+      </c>
+      <c r="E37" s="6">
+        <v>128</v>
+      </c>
+      <c r="F37" s="6">
+        <v>600</v>
+      </c>
+      <c r="G37" s="6">
+        <v>50</v>
+      </c>
+      <c r="H37" s="6">
+        <v>150</v>
+      </c>
+      <c r="I37" s="6">
+        <v>100</v>
+      </c>
+      <c r="J37" s="6">
+        <v>50</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>730</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="2">
+        <v>40</v>
+      </c>
+      <c r="H38" s="2">
+        <v>250</v>
+      </c>
+      <c r="I38" s="2">
+        <v>100</v>
+      </c>
+      <c r="J38" s="2">
+        <v>50</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>365</v>
+      </c>
+      <c r="E39" s="1">
+        <v>512</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>50</v>
+      </c>
+      <c r="H39" s="1">
+        <v>200</v>
+      </c>
+      <c r="I39" s="1">
+        <v>100</v>
+      </c>
+      <c r="J39" s="1">
+        <v>50</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>365</v>
+      </c>
+      <c r="E40" s="1">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1">
+        <v>600</v>
+      </c>
+      <c r="G40" s="1">
+        <v>50</v>
+      </c>
+      <c r="H40" s="1">
+        <v>150</v>
+      </c>
+      <c r="I40" s="1">
+        <v>100</v>
+      </c>
+      <c r="J40" s="1">
+        <v>50</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>44804</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>730</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="2">
+        <v>50</v>
+      </c>
+      <c r="H41" s="2">
+        <v>250</v>
+      </c>
+      <c r="I41" s="2">
+        <v>100</v>
+      </c>
+      <c r="J41" s="2">
+        <v>50</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>365</v>
+      </c>
+      <c r="E42" s="1">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1">
+        <v>600</v>
+      </c>
+      <c r="G42" s="1">
+        <v>50</v>
+      </c>
+      <c r="H42" s="1">
+        <v>150</v>
+      </c>
+      <c r="I42" s="1">
+        <v>100</v>
+      </c>
+      <c r="J42" s="1">
+        <v>50</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O34">
     <sortCondition ref="A2:A34"/>

--- a/multi_stocks_multi_predictions_learning_parameters.xlsx
+++ b/multi_stocks_multi_predictions_learning_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dickli/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54858ACB-4F4E-B146-8106-C21BD1F5E292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A138B8F-9387-5A4A-A276-42312F5EDC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="740" windowWidth="20580" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="740" windowWidth="20580" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multi_stocks_multi_predictions_" sheetId="1" r:id="rId1"/>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
